--- a/assets/media/project-90.xlsx
+++ b/assets/media/project-90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Story</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,9 +1457,7 @@
       <c r="C28" s="16">
         <v>21</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -1479,7 +1477,9 @@
       <c r="C29" s="10">
         <v>5</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1503,7 +1503,9 @@
       <c r="C30" s="10">
         <v>3</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1527,7 +1529,9 @@
       <c r="C31" s="10">
         <v>3</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1551,7 +1555,9 @@
       <c r="C32" s="2">
         <v>10</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
